--- a/EmployeeTemplateInterfaces_LAST/Employees.xlsx
+++ b/EmployeeTemplateInterfaces_LAST/Employees.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Visual Studio 2015\Projects\NodalPay - 2019\EmployeeTemplateInterfaces_LAST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C608273E-1895-4CCB-A742-334273647E6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93EF100C-D61F-459C-BF2B-321F797E71B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -133,9 +133,6 @@
     <t>Cypriot</t>
   </si>
   <si>
-    <t>REVOGB21</t>
-  </si>
-  <si>
     <t>Female</t>
   </si>
   <si>
@@ -176,6 +173,9 @@
   </si>
   <si>
     <t>leave empty</t>
+  </si>
+  <si>
+    <t>PIRBCY2NXXX</t>
   </si>
 </sst>
 </file>
@@ -605,8 +605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AE3" sqref="AE3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -617,7 +617,9 @@
     <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.5703125" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="31.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="31.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22.85546875" bestFit="1" customWidth="1"/>
@@ -750,7 +752,7 @@
         <v>33</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AJ1" s="1" t="s">
         <v>34</v>
@@ -796,20 +798,20 @@
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3" s="8">
         <v>10001</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G3" s="9">
         <v>33925</v>
@@ -822,26 +824,26 @@
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L3" s="6"/>
       <c r="M3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="O3" s="6">
         <v>99999999</v>
       </c>
       <c r="P3" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q3" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="S3" s="6">
         <v>1111111</v>
@@ -855,20 +857,20 @@
       </c>
       <c r="Y3" s="6"/>
       <c r="Z3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA3" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="AA3" s="6" t="s">
-        <v>41</v>
       </c>
       <c r="AB3" s="6"/>
       <c r="AC3" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AD3" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE3" s="6" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="AF3" s="7"/>
       <c r="AG3" s="6"/>
